--- a/INPUTS/inputs_4storyFrameOakland.xlsx
+++ b/INPUTS/inputs_4storyFrameOakland.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacho\Documents\Github\ModelerWSMF\INPUTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF83799-AFC0-4FB7-977F-B1D7AE84AB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222B4813-2048-4CDB-A18D-6DD78BF2A955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basics" sheetId="2" r:id="rId1"/>
@@ -330,7 +330,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -686,7 +686,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -696,11 +696,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.109375" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" customWidth="1"/>
@@ -714,7 +714,7 @@
     <col min="11" max="11" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -749,7 +749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>4</v>
       </c>
@@ -776,13 +776,14 @@
         <v>5</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <f>4*12</f>
+        <v>48</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -798,14 +799,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -816,7 +817,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -827,7 +828,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -838,7 +839,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -849,7 +850,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
@@ -873,14 +874,14 @@
       <selection activeCell="C2" sqref="C2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="5.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>60</v>
       </c>
@@ -894,7 +895,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -911,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -928,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -945,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
@@ -972,17 +973,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>64</v>
       </c>
@@ -999,7 +1000,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>17.109375</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -1049,7 +1050,7 @@
         <v>17.109375</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>17.109375</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
@@ -1113,13 +1114,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -1127,7 +1128,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>410.625</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -1145,7 +1146,7 @@
         <v>410.625</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>410.625</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
@@ -1176,7 +1177,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -1189,7 +1190,7 @@
     <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -1218,7 +1219,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>92</v>
       </c>
@@ -1248,10 +1249,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
     </row>
   </sheetData>
@@ -1267,13 +1268,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.5546875" customWidth="1"/>
     <col min="2" max="2" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1281,7 +1282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1290,7 +1291,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -1299,7 +1300,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -1331,13 +1332,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1354,7 +1355,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1363,7 +1364,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1372,7 +1373,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1395,7 +1396,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.5546875" customWidth="1"/>
     <col min="2" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
@@ -1403,7 +1404,7 @@
     <col min="11" max="11" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -1420,7 +1421,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1440,7 +1441,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1460,7 +1461,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
@@ -1512,17 +1513,17 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F5"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.5546875" customWidth="1"/>
     <col min="2" max="10" width="5.88671875" customWidth="1"/>
     <col min="11" max="11" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>28</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1559,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1579,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1599,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
@@ -1633,14 +1634,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="6.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -1654,7 +1655,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1671,7 +1672,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1688,7 +1689,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1705,7 +1706,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
@@ -1736,14 +1737,14 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.5546875" customWidth="1"/>
     <col min="2" max="10" width="5.88671875" customWidth="1"/>
     <col min="11" max="11" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>37</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1780,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1800,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1820,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
@@ -1854,14 +1855,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="10" width="5.88671875" customWidth="1"/>
     <col min="11" max="11" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>42</v>
       </c>
@@ -1878,7 +1879,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1898,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1918,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1938,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
@@ -1972,7 +1973,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="2" max="2" width="8.44140625" customWidth="1"/>
@@ -1980,7 +1981,7 @@
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1994,7 +1995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -2008,7 +2009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2022,7 +2023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2036,7 +2037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>81</v>
       </c>

--- a/INPUTS/inputs_4storyFrameOakland.xlsx
+++ b/INPUTS/inputs_4storyFrameOakland.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacho\Documents\Github\ModelerWSMF\INPUTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222B4813-2048-4CDB-A18D-6DD78BF2A955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D419CF41-962E-4C58-9C24-9FB312A1B309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basics" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="98">
   <si>
     <t>storiesAboveGrade</t>
   </si>
@@ -155,15 +155,96 @@
     <t>story2</t>
   </si>
   <si>
+    <t>Axis1</t>
+  </si>
+  <si>
+    <t>Axis2</t>
+  </si>
+  <si>
+    <t>Floor2</t>
+  </si>
+  <si>
+    <t>Floor3</t>
+  </si>
+  <si>
+    <t>Floor4</t>
+  </si>
+  <si>
+    <t>Axis1</t>
+  </si>
+  <si>
+    <t>Axis2</t>
+  </si>
+  <si>
+    <t>storyName</t>
+  </si>
+  <si>
+    <t>story1</t>
+  </si>
+  <si>
+    <t>story2</t>
+  </si>
+  <si>
     <t>story3</t>
   </si>
   <si>
+    <t>nColEGF</t>
+  </si>
+  <si>
+    <t>colSizeEGF</t>
+  </si>
+  <si>
+    <t>nColMRForthogonal</t>
+  </si>
+  <si>
+    <t>floorName</t>
+  </si>
+  <si>
+    <t>Floor2</t>
+  </si>
+  <si>
+    <t>Floor3</t>
+  </si>
+  <si>
+    <t>Floor4</t>
+  </si>
+  <si>
+    <t>nBeamsEGF</t>
+  </si>
+  <si>
+    <t>beamSizeEGF</t>
+  </si>
+  <si>
+    <t>Floor2</t>
+  </si>
+  <si>
+    <t>Floor3</t>
+  </si>
+  <si>
+    <t>Floor4</t>
+  </si>
+  <si>
+    <t>Bay1</t>
+  </si>
+  <si>
+    <t>Floor2</t>
+  </si>
+  <si>
+    <t>Floor3</t>
+  </si>
+  <si>
+    <t>Floor4</t>
+  </si>
+  <si>
     <t>Axis1</t>
   </si>
   <si>
     <t>Axis2</t>
   </si>
   <si>
+    <t>floorName</t>
+  </si>
+  <si>
     <t>Floor2</t>
   </si>
   <si>
@@ -173,90 +254,6 @@
     <t>Floor4</t>
   </si>
   <si>
-    <t>Axis1</t>
-  </si>
-  <si>
-    <t>Axis2</t>
-  </si>
-  <si>
-    <t>storyName</t>
-  </si>
-  <si>
-    <t>story1</t>
-  </si>
-  <si>
-    <t>story2</t>
-  </si>
-  <si>
-    <t>story3</t>
-  </si>
-  <si>
-    <t>nColEGF</t>
-  </si>
-  <si>
-    <t>colSizeEGF</t>
-  </si>
-  <si>
-    <t>nColMRForthogonal</t>
-  </si>
-  <si>
-    <t>floorName</t>
-  </si>
-  <si>
-    <t>Floor2</t>
-  </si>
-  <si>
-    <t>Floor3</t>
-  </si>
-  <si>
-    <t>Floor4</t>
-  </si>
-  <si>
-    <t>nBeamsEGF</t>
-  </si>
-  <si>
-    <t>beamSizeEGF</t>
-  </si>
-  <si>
-    <t>Floor2</t>
-  </si>
-  <si>
-    <t>Floor3</t>
-  </si>
-  <si>
-    <t>Floor4</t>
-  </si>
-  <si>
-    <t>Bay1</t>
-  </si>
-  <si>
-    <t>Floor2</t>
-  </si>
-  <si>
-    <t>Floor3</t>
-  </si>
-  <si>
-    <t>Floor4</t>
-  </si>
-  <si>
-    <t>Axis1</t>
-  </si>
-  <si>
-    <t>Axis2</t>
-  </si>
-  <si>
-    <t>floorName</t>
-  </si>
-  <si>
-    <t>Floor2</t>
-  </si>
-  <si>
-    <t>Floor3</t>
-  </si>
-  <si>
-    <t>Floor4</t>
-  </si>
-  <si>
     <t>EGFweigth</t>
   </si>
   <si>
@@ -290,47 +287,65 @@
     <t>Bolted</t>
   </si>
   <si>
+    <t>Axis3</t>
+  </si>
+  <si>
+    <t>Bay2</t>
+  </si>
+  <si>
+    <t>Bay3</t>
+  </si>
+  <si>
+    <t>Bay4</t>
+  </si>
+  <si>
+    <t>W14X132</t>
+  </si>
+  <si>
+    <t>Axis4</t>
+  </si>
+  <si>
+    <t>Axis5</t>
+  </si>
+  <si>
+    <t>W24X62</t>
+  </si>
+  <si>
+    <t>Bay5</t>
+  </si>
+  <si>
+    <t>Axis6</t>
+  </si>
+  <si>
     <t>story4</t>
   </si>
   <si>
-    <t>Axis3</t>
-  </si>
-  <si>
-    <t>Bay2</t>
-  </si>
-  <si>
     <t>Floor5</t>
   </si>
   <si>
-    <t>Bay3</t>
-  </si>
-  <si>
-    <t>Bay4</t>
-  </si>
-  <si>
-    <t>W14X145</t>
-  </si>
-  <si>
-    <t>W14X132</t>
-  </si>
-  <si>
-    <t>Axis4</t>
-  </si>
-  <si>
-    <t>Axis5</t>
-  </si>
-  <si>
-    <t>W24X84</t>
-  </si>
-  <si>
-    <t>W24X62</t>
+    <t>W14X233</t>
+  </si>
+  <si>
+    <t>W14X159</t>
+  </si>
+  <si>
+    <t>W12X336</t>
+  </si>
+  <si>
+    <t>W12X252</t>
+  </si>
+  <si>
+    <t>W21X147</t>
+  </si>
+  <si>
+    <t>W21X73</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -398,9 +413,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -438,7 +453,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -544,7 +559,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -686,7 +701,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -696,11 +711,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" customWidth="1"/>
@@ -714,7 +729,7 @@
     <col min="11" max="11" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -749,12 +764,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -796,143 +811,153 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>52</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>91</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E5"/>
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="5.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>57</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>58</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
       <c r="B4">
         <v>0</v>
       </c>
@@ -945,10 +970,13 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>84</v>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>91</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -960,6 +988,9 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -971,133 +1002,128 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>86</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2">
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <v>56</v>
+      </c>
+      <c r="E2">
+        <v>56</v>
+      </c>
+      <c r="F2">
+        <v>56</v>
+      </c>
+      <c r="G2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>61</v>
       </c>
-      <c r="B2">
-        <f>(97+0.25*50)*bayLgth!B2/2*bayLgth!B2/2/12^2/1000</f>
-        <v>17.109375</v>
-      </c>
-      <c r="C2">
-        <f>(97+0.25*50)*bayLgth!B3*bayLgth!B3/2/12^2/1000</f>
-        <v>34.21875</v>
-      </c>
-      <c r="D2">
-        <f>C2</f>
-        <v>34.21875</v>
-      </c>
-      <c r="E2">
-        <f>D2</f>
-        <v>34.21875</v>
-      </c>
-      <c r="F2">
-        <f>B2</f>
-        <v>17.109375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>56</v>
+      </c>
+      <c r="C3">
+        <v>56</v>
+      </c>
+      <c r="D3">
+        <v>56</v>
+      </c>
+      <c r="E3">
+        <v>56</v>
+      </c>
+      <c r="F3">
+        <v>56</v>
+      </c>
+      <c r="G3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>62</v>
       </c>
-      <c r="B3">
-        <f>B2</f>
-        <v>17.109375</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:F3" si="0">C2</f>
-        <v>34.21875</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>34.21875</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>34.21875</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>17.109375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
       <c r="B4">
-        <f t="shared" ref="B4:B5" si="1">B3</f>
-        <v>17.109375</v>
+        <v>56</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C5" si="2">C3</f>
-        <v>34.21875</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D5" si="3">D3</f>
-        <v>34.21875</v>
+        <v>56</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E5" si="4">E3</f>
-        <v>34.21875</v>
+        <v>56</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F5" si="5">F3</f>
-        <v>17.109375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>56</v>
+      </c>
+      <c r="G4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>91</v>
       </c>
       <c r="B5">
-        <f t="shared" si="1"/>
-        <v>17.109375</v>
+        <v>56</v>
       </c>
       <c r="C5">
-        <f t="shared" si="2"/>
-        <v>34.21875</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <f t="shared" si="3"/>
-        <v>34.21875</v>
+        <v>56</v>
       </c>
       <c r="E5">
-        <f t="shared" si="4"/>
-        <v>34.21875</v>
+        <v>56</v>
       </c>
       <c r="F5">
-        <f t="shared" si="5"/>
-        <v>17.109375</v>
+        <v>56</v>
+      </c>
+      <c r="G5">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1111,73 +1137,70 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>66</v>
       </c>
-      <c r="B1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>773.0859375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>67</v>
       </c>
-      <c r="B2">
-        <f>((97+0.25*50)*SUM(bayLgth!$B$2:$B$5)^2/12^2)/1000/2-SUM(wgtOnCol!$B$2:$F$2)</f>
-        <v>410.625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>762.7734375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>68</v>
       </c>
-      <c r="B3">
-        <f>((97+0.25*50)*SUM(bayLgth!$B$2:$B$5)^2/12^2)/1000/2-SUM(wgtOnCol!$B$2:$F$2)</f>
-        <v>410.625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>69</v>
-      </c>
       <c r="B4">
-        <f>((97+0.25*50)*SUM(bayLgth!$B$2:$B$5)^2/12^2)/1000/2-SUM(wgtOnCol!$B$2:$F$2)</f>
-        <v>410.625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>762.7734375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>91</v>
       </c>
       <c r="B5">
-        <f>((97+0.25*50)*SUM(bayLgth!$B$2:$B$5)^2/12^2)/1000/2-SUM(wgtOnCol!$B$2:$F$2)</f>
-        <v>410.625</v>
+        <v>658.2421875</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A7" sqref="A7:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -1190,41 +1213,42 @@
     <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>76</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>77</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>78</v>
       </c>
-      <c r="I1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>92</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <f>16*0.25</f>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0.625</v>
@@ -1243,17 +1267,104 @@
       </c>
       <c r="H2">
         <f>F2*(B2-1)+2</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B5" si="0">16*0.25</f>
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0.625</v>
+      </c>
+      <c r="D3">
+        <v>0.375</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>1.5</v>
+      </c>
+      <c r="H3">
+        <f>F3*(B3-1)+2</f>
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>0.625</v>
+      </c>
+      <c r="D4">
+        <v>0.375</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>1.5</v>
+      </c>
+      <c r="H4">
+        <f>F4*(B4-1)+2</f>
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0.625</v>
+      </c>
+      <c r="D5">
+        <v>0.375</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>1.5</v>
+      </c>
+      <c r="H5">
+        <f>F5*(B5-1)+2</f>
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1262,19 +1373,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D18" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" customWidth="1"/>
     <col min="2" max="2" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1282,7 +1393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1291,30 +1402,39 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B6" si="0">25*12</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>83</v>
       </c>
-      <c r="B3">
-        <f>25*12</f>
+      <c r="B5">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4">
-        <f>25*12</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5">
-        <f>25*12</f>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
     </row>
@@ -1329,16 +1449,16 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1346,40 +1466,40 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1">
-        <f>13*12</f>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <f>15*12</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1">
-        <f>B2</f>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <f>12*12</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1">
         <f>B3</f>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1">
-        <f>B4</f>
-        <v>156</v>
+        <f>12*12</f>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1390,13 +1510,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5546875" customWidth="1"/>
     <col min="2" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
@@ -1404,7 +1524,7 @@
     <col min="11" max="11" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -1412,93 +1532,108 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>88</v>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1510,20 +1645,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="B5" sqref="B5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5546875" customWidth="1"/>
     <col min="2" max="10" width="5.88671875" customWidth="1"/>
     <col min="11" max="11" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>28</v>
       </c>
@@ -1531,16 +1666,19 @@
         <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1559,8 +1697,11 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1579,8 +1720,11 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1599,10 +1743,13 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>81</v>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>90</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1617,6 +1764,9 @@
         <v>1</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
     </row>
@@ -1628,99 +1778,114 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="6.21875" customWidth="1"/>
+    <col min="2" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="6.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>92</v>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1731,37 +1896,40 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5546875" customWidth="1"/>
     <col min="2" max="10" width="5.88671875" customWidth="1"/>
     <col min="11" max="11" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1780,8 +1948,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1800,10 +1971,13 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1820,10 +1994,13 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>81</v>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>90</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1838,6 +2015,9 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
     </row>
@@ -1849,114 +2029,129 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B5" sqref="B5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="10" width="5.88671875" customWidth="1"/>
     <col min="11" max="11" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.75</v>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1970,10 +2165,10 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="2" max="2" width="8.44140625" customWidth="1"/>
@@ -1981,71 +2176,71 @@
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>45</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>81</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>90</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D5">
         <v>2</v>
